--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Fgf17-Fgfr1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Fgf17-Fgfr1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,28 +76,28 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
     <t>Fgf17</t>
   </si>
   <si>
     <t>Fgfr1</t>
   </si>
   <si>
-    <t>ECs</t>
-  </si>
-  <si>
     <t>Inflammatory-Mac</t>
   </si>
   <si>
     <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,31 +528,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.366566</v>
+        <v>0.1403416666666667</v>
       </c>
       <c r="H2">
-        <v>1.099698</v>
+        <v>0.421025</v>
       </c>
       <c r="I2">
-        <v>0.5689653834353526</v>
+        <v>0.1831816192293602</v>
       </c>
       <c r="J2">
-        <v>0.5689653834353527</v>
+        <v>0.1831816192293602</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>5.855348</v>
+        <v>10.48767733333333</v>
       </c>
       <c r="N2">
-        <v>17.566044</v>
+        <v>31.463032</v>
       </c>
       <c r="O2">
-        <v>0.05092948808292105</v>
+        <v>0.1222087640673552</v>
       </c>
       <c r="P2">
-        <v>0.05092948808292105</v>
+        <v>0.1222087640673552</v>
       </c>
       <c r="Q2">
-        <v>2.146371494968</v>
+        <v>1.471858116422222</v>
       </c>
       <c r="R2">
-        <v>19.317343454712</v>
+        <v>13.2467230478</v>
       </c>
       <c r="S2">
-        <v>0.0289771157152654</v>
+        <v>0.02238639928587699</v>
       </c>
       <c r="T2">
-        <v>0.0289771157152654</v>
+        <v>0.02238639928587698</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,31 +590,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.366566</v>
+        <v>0.1403416666666667</v>
       </c>
       <c r="H3">
-        <v>1.099698</v>
+        <v>0.421025</v>
       </c>
       <c r="I3">
-        <v>0.5689653834353526</v>
+        <v>0.1831816192293602</v>
       </c>
       <c r="J3">
-        <v>0.5689653834353527</v>
+        <v>0.1831816192293602</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>188.990975</v>
       </c>
       <c r="O3">
-        <v>0.547944295769846</v>
+        <v>0.7340790765058636</v>
       </c>
       <c r="P3">
-        <v>0.547944295769846</v>
+        <v>0.7340790765058635</v>
       </c>
       <c r="Q3">
-        <v>23.09255524728333</v>
+        <v>8.841102805486111</v>
       </c>
       <c r="R3">
-        <v>207.83299722555</v>
+        <v>79.56992524937499</v>
       </c>
       <c r="S3">
-        <v>0.3117613363439047</v>
+        <v>0.1344697938767375</v>
       </c>
       <c r="T3">
-        <v>0.3117613363439048</v>
+        <v>0.1344697938767374</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,31 +652,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.366566</v>
+        <v>0.1403416666666667</v>
       </c>
       <c r="H4">
-        <v>1.099698</v>
+        <v>0.421025</v>
       </c>
       <c r="I4">
-        <v>0.5689653834353526</v>
+        <v>0.1831816192293602</v>
       </c>
       <c r="J4">
-        <v>0.5689653834353527</v>
+        <v>0.1831816192293602</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.2640463333333333</v>
+        <v>0.3322793333333333</v>
       </c>
       <c r="N4">
-        <v>0.7921389999999999</v>
+        <v>0.996838</v>
       </c>
       <c r="O4">
-        <v>0.002296660179179615</v>
+        <v>0.003871919907635547</v>
       </c>
       <c r="P4">
-        <v>0.002296660179179615</v>
+        <v>0.003871919907635547</v>
       </c>
       <c r="Q4">
-        <v>0.09679040822466667</v>
+        <v>0.04663263543888889</v>
       </c>
       <c r="R4">
-        <v>0.871113674022</v>
+        <v>0.41969371895</v>
       </c>
       <c r="S4">
-        <v>0.001306720139467635</v>
+        <v>0.0007092645582070745</v>
       </c>
       <c r="T4">
-        <v>0.001306720139467635</v>
+        <v>0.0007092645582070742</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,31 +714,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
       <c r="E5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.366566</v>
+        <v>0.1403416666666667</v>
       </c>
       <c r="H5">
-        <v>1.099698</v>
+        <v>0.421025</v>
       </c>
       <c r="I5">
-        <v>0.5689653834353526</v>
+        <v>0.1831816192293602</v>
       </c>
       <c r="J5">
-        <v>0.5689653834353527</v>
+        <v>0.1831816192293602</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>43.864011</v>
+        <v>10.25458433333333</v>
       </c>
       <c r="N5">
-        <v>131.592033</v>
+        <v>30.763753</v>
       </c>
       <c r="O5">
-        <v>0.3815267043894944</v>
+        <v>0.1194926233493133</v>
       </c>
       <c r="P5">
-        <v>0.3815267043894944</v>
+        <v>0.1194926233493133</v>
       </c>
       <c r="Q5">
-        <v>16.079055056226</v>
+        <v>1.439145456313889</v>
       </c>
       <c r="R5">
-        <v>144.711495506034</v>
+        <v>12.952309106825</v>
       </c>
       <c r="S5">
-        <v>0.2170754876537951</v>
+        <v>0.02188885223109127</v>
       </c>
       <c r="T5">
-        <v>0.2170754876537952</v>
+        <v>0.02188885223109127</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,31 +776,31 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.366566</v>
+        <v>0.1403416666666667</v>
       </c>
       <c r="H6">
-        <v>1.099698</v>
+        <v>0.421025</v>
       </c>
       <c r="I6">
-        <v>0.5689653834353526</v>
+        <v>0.1831816192293602</v>
       </c>
       <c r="J6">
-        <v>0.5689653834353527</v>
+        <v>0.1831816192293602</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.763133</v>
+        <v>0.7572163333333334</v>
       </c>
       <c r="N6">
-        <v>2.289399</v>
+        <v>2.271649</v>
       </c>
       <c r="O6">
-        <v>0.006637687978440185</v>
+        <v>0.008823543029319092</v>
       </c>
       <c r="P6">
-        <v>0.006637687978440185</v>
+        <v>0.00882354302931909</v>
       </c>
       <c r="Q6">
-        <v>0.279738611278</v>
+        <v>0.1062690022472222</v>
       </c>
       <c r="R6">
-        <v>2.517647501502</v>
+        <v>0.956421020225</v>
       </c>
       <c r="S6">
-        <v>0.003776614685777451</v>
+        <v>0.001616310899450606</v>
       </c>
       <c r="T6">
-        <v>0.003776614685777452</v>
+        <v>0.001616310899450605</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,31 +838,31 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
         <v>23</v>
       </c>
-      <c r="D7" t="s">
-        <v>27</v>
-      </c>
       <c r="E7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.366566</v>
+        <v>0.1403416666666667</v>
       </c>
       <c r="H7">
-        <v>1.099698</v>
+        <v>0.421025</v>
       </c>
       <c r="I7">
-        <v>0.5689653834353526</v>
+        <v>0.1831816192293602</v>
       </c>
       <c r="J7">
-        <v>0.5689653834353527</v>
+        <v>0.1831816192293602</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.226170666666667</v>
+        <v>0.9889696666666666</v>
       </c>
       <c r="N7">
-        <v>3.678512</v>
+        <v>2.966909</v>
       </c>
       <c r="O7">
-        <v>0.01066516360011862</v>
+        <v>0.01152407314051338</v>
       </c>
       <c r="P7">
-        <v>0.01066516360011862</v>
+        <v>0.01152407314051338</v>
       </c>
       <c r="Q7">
-        <v>0.4494724765973334</v>
+        <v>0.1387936513027778</v>
       </c>
       <c r="R7">
-        <v>4.045252289376</v>
+        <v>1.249142861725</v>
       </c>
       <c r="S7">
-        <v>0.006068108897142256</v>
+        <v>0.002110998377996819</v>
       </c>
       <c r="T7">
-        <v>0.006068108897142256</v>
+        <v>0.002110998377996819</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,13 +900,13 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -915,16 +915,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.2777016666666667</v>
+        <v>0.366566</v>
       </c>
       <c r="H8">
-        <v>0.833105</v>
+        <v>1.099698</v>
       </c>
       <c r="I8">
-        <v>0.4310346165646473</v>
+        <v>0.4784619922885553</v>
       </c>
       <c r="J8">
-        <v>0.4310346165646473</v>
+        <v>0.4784619922885552</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>5.855348</v>
+        <v>10.48767733333333</v>
       </c>
       <c r="N8">
-        <v>17.566044</v>
+        <v>31.463032</v>
       </c>
       <c r="O8">
-        <v>0.05092948808292105</v>
+        <v>0.1222087640673552</v>
       </c>
       <c r="P8">
-        <v>0.05092948808292105</v>
+        <v>0.1222087640673552</v>
       </c>
       <c r="Q8">
-        <v>1.626039898513334</v>
+        <v>3.844425929370666</v>
       </c>
       <c r="R8">
-        <v>14.63435908662</v>
+        <v>34.599833364336</v>
       </c>
       <c r="S8">
-        <v>0.02195237236765565</v>
+        <v>0.0584722487307888</v>
       </c>
       <c r="T8">
-        <v>0.02195237236765565</v>
+        <v>0.05847224873078878</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,13 +962,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -977,16 +977,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.2777016666666667</v>
+        <v>0.366566</v>
       </c>
       <c r="H9">
-        <v>0.833105</v>
+        <v>1.099698</v>
       </c>
       <c r="I9">
-        <v>0.4310346165646473</v>
+        <v>0.4784619922885553</v>
       </c>
       <c r="J9">
-        <v>0.4310346165646473</v>
+        <v>0.4784619922885552</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>188.990975</v>
       </c>
       <c r="O9">
-        <v>0.547944295769846</v>
+        <v>0.7340790765058636</v>
       </c>
       <c r="P9">
-        <v>0.547944295769846</v>
+        <v>0.7340790765058635</v>
       </c>
       <c r="Q9">
-        <v>17.49436958081944</v>
+        <v>23.09255524728333</v>
       </c>
       <c r="R9">
-        <v>157.449326227375</v>
+        <v>207.83299722555</v>
       </c>
       <c r="S9">
-        <v>0.2361829594259413</v>
+        <v>0.3512289374423383</v>
       </c>
       <c r="T9">
-        <v>0.2361829594259413</v>
+        <v>0.3512289374423382</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,13 +1024,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1039,16 +1039,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.2777016666666667</v>
+        <v>0.366566</v>
       </c>
       <c r="H10">
-        <v>0.833105</v>
+        <v>1.099698</v>
       </c>
       <c r="I10">
-        <v>0.4310346165646473</v>
+        <v>0.4784619922885553</v>
       </c>
       <c r="J10">
-        <v>0.4310346165646473</v>
+        <v>0.4784619922885552</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.2640463333333333</v>
+        <v>0.3322793333333333</v>
       </c>
       <c r="N10">
-        <v>0.7921389999999999</v>
+        <v>0.996838</v>
       </c>
       <c r="O10">
-        <v>0.002296660179179615</v>
+        <v>0.003871919907635547</v>
       </c>
       <c r="P10">
-        <v>0.002296660179179615</v>
+        <v>0.003871919907635547</v>
       </c>
       <c r="Q10">
-        <v>0.07332610684388889</v>
+        <v>0.1218023061026667</v>
       </c>
       <c r="R10">
-        <v>0.659934961595</v>
+        <v>1.096220754924</v>
       </c>
       <c r="S10">
-        <v>0.0009899400397119793</v>
+        <v>0.001852566512989023</v>
       </c>
       <c r="T10">
-        <v>0.0009899400397119793</v>
+        <v>0.001852566512989023</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,14 +1086,14 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
         <v>22</v>
       </c>
-      <c r="C11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" t="s">
-        <v>21</v>
-      </c>
       <c r="E11">
         <v>3</v>
       </c>
@@ -1101,16 +1101,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.2777016666666667</v>
+        <v>0.366566</v>
       </c>
       <c r="H11">
-        <v>0.833105</v>
+        <v>1.099698</v>
       </c>
       <c r="I11">
-        <v>0.4310346165646473</v>
+        <v>0.4784619922885553</v>
       </c>
       <c r="J11">
-        <v>0.4310346165646473</v>
+        <v>0.4784619922885552</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>43.864011</v>
+        <v>10.25458433333333</v>
       </c>
       <c r="N11">
-        <v>131.592033</v>
+        <v>30.763753</v>
       </c>
       <c r="O11">
-        <v>0.3815267043894944</v>
+        <v>0.1194926233493133</v>
       </c>
       <c r="P11">
-        <v>0.3815267043894944</v>
+        <v>0.1194926233493133</v>
       </c>
       <c r="Q11">
-        <v>12.181108961385</v>
+        <v>3.758981960732667</v>
       </c>
       <c r="R11">
-        <v>109.629980652465</v>
+        <v>33.83083764659401</v>
       </c>
       <c r="S11">
-        <v>0.1644512167356993</v>
+        <v>0.0571726786314984</v>
       </c>
       <c r="T11">
-        <v>0.1644512167356993</v>
+        <v>0.05717267863149839</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,13 +1148,13 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1163,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.2777016666666667</v>
+        <v>0.366566</v>
       </c>
       <c r="H12">
-        <v>0.833105</v>
+        <v>1.099698</v>
       </c>
       <c r="I12">
-        <v>0.4310346165646473</v>
+        <v>0.4784619922885553</v>
       </c>
       <c r="J12">
-        <v>0.4310346165646473</v>
+        <v>0.4784619922885552</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.763133</v>
+        <v>0.7572163333333334</v>
       </c>
       <c r="N12">
-        <v>2.289399</v>
+        <v>2.271649</v>
       </c>
       <c r="O12">
-        <v>0.006637687978440185</v>
+        <v>0.008823543029319092</v>
       </c>
       <c r="P12">
-        <v>0.006637687978440185</v>
+        <v>0.00882354302931909</v>
       </c>
       <c r="Q12">
-        <v>0.2119233059883333</v>
+        <v>0.2775697624446667</v>
       </c>
       <c r="R12">
-        <v>1.907309753895</v>
+        <v>2.498127862002</v>
       </c>
       <c r="S12">
-        <v>0.002861073292662734</v>
+        <v>0.004221729976851807</v>
       </c>
       <c r="T12">
-        <v>0.002861073292662734</v>
+        <v>0.004221729976851806</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,805 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.366566</v>
+      </c>
+      <c r="H13">
+        <v>1.099698</v>
+      </c>
+      <c r="I13">
+        <v>0.4784619922885553</v>
+      </c>
+      <c r="J13">
+        <v>0.4784619922885552</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.9889696666666666</v>
+      </c>
+      <c r="N13">
+        <v>2.966909</v>
+      </c>
+      <c r="O13">
+        <v>0.01152407314051338</v>
+      </c>
+      <c r="P13">
+        <v>0.01152407314051338</v>
+      </c>
+      <c r="Q13">
+        <v>0.3625226548313333</v>
+      </c>
+      <c r="R13">
+        <v>3.262703893482</v>
+      </c>
+      <c r="S13">
+        <v>0.005513830994089059</v>
+      </c>
+      <c r="T13">
+        <v>0.005513830994089058</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
         <v>22</v>
       </c>
-      <c r="C13" t="s">
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G14">
+        <v>0.12712</v>
+      </c>
+      <c r="H14">
+        <v>0.38136</v>
+      </c>
+      <c r="I14">
+        <v>0.1659239767455824</v>
+      </c>
+      <c r="J14">
+        <v>0.1659239767455823</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>10.48767733333333</v>
+      </c>
+      <c r="N14">
+        <v>31.463032</v>
+      </c>
+      <c r="O14">
+        <v>0.1222087640673552</v>
+      </c>
+      <c r="P14">
+        <v>0.1222087640673552</v>
+      </c>
+      <c r="Q14">
+        <v>1.333193542613333</v>
+      </c>
+      <c r="R14">
+        <v>11.99874188352</v>
+      </c>
+      <c r="S14">
+        <v>0.02027736412721821</v>
+      </c>
+      <c r="T14">
+        <v>0.02027736412721821</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G15">
+        <v>0.12712</v>
+      </c>
+      <c r="H15">
+        <v>0.38136</v>
+      </c>
+      <c r="I15">
+        <v>0.1659239767455824</v>
+      </c>
+      <c r="J15">
+        <v>0.1659239767455823</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>62.99699166666667</v>
+      </c>
+      <c r="N15">
+        <v>188.990975</v>
+      </c>
+      <c r="O15">
+        <v>0.7340790765058636</v>
+      </c>
+      <c r="P15">
+        <v>0.7340790765058635</v>
+      </c>
+      <c r="Q15">
+        <v>8.008177580666667</v>
+      </c>
+      <c r="R15">
+        <v>72.073598226</v>
+      </c>
+      <c r="S15">
+        <v>0.1218013196195775</v>
+      </c>
+      <c r="T15">
+        <v>0.1218013196195775</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>0.12712</v>
+      </c>
+      <c r="H16">
+        <v>0.38136</v>
+      </c>
+      <c r="I16">
+        <v>0.1659239767455824</v>
+      </c>
+      <c r="J16">
+        <v>0.1659239767455823</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.3322793333333333</v>
+      </c>
+      <c r="N16">
+        <v>0.996838</v>
+      </c>
+      <c r="O16">
+        <v>0.003871919907635547</v>
+      </c>
+      <c r="P16">
+        <v>0.003871919907635547</v>
+      </c>
+      <c r="Q16">
+        <v>0.04223934885333334</v>
+      </c>
+      <c r="R16">
+        <v>0.3801541396800001</v>
+      </c>
+      <c r="S16">
+        <v>0.0006424443487152779</v>
+      </c>
+      <c r="T16">
+        <v>0.0006424443487152778</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G17">
+        <v>0.12712</v>
+      </c>
+      <c r="H17">
+        <v>0.38136</v>
+      </c>
+      <c r="I17">
+        <v>0.1659239767455824</v>
+      </c>
+      <c r="J17">
+        <v>0.1659239767455823</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>10.25458433333333</v>
+      </c>
+      <c r="N17">
+        <v>30.763753</v>
+      </c>
+      <c r="O17">
+        <v>0.1194926233493133</v>
+      </c>
+      <c r="P17">
+        <v>0.1194926233493133</v>
+      </c>
+      <c r="Q17">
+        <v>1.303562760453334</v>
+      </c>
+      <c r="R17">
+        <v>11.73206484408</v>
+      </c>
+      <c r="S17">
+        <v>0.0198266912578801</v>
+      </c>
+      <c r="T17">
+        <v>0.01982669125788009</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G18">
+        <v>0.12712</v>
+      </c>
+      <c r="H18">
+        <v>0.38136</v>
+      </c>
+      <c r="I18">
+        <v>0.1659239767455824</v>
+      </c>
+      <c r="J18">
+        <v>0.1659239767455823</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>0.7572163333333334</v>
+      </c>
+      <c r="N18">
+        <v>2.271649</v>
+      </c>
+      <c r="O18">
+        <v>0.008823543029319092</v>
+      </c>
+      <c r="P18">
+        <v>0.00882354302931909</v>
+      </c>
+      <c r="Q18">
+        <v>0.09625734029333334</v>
+      </c>
+      <c r="R18">
+        <v>0.8663160626400001</v>
+      </c>
+      <c r="S18">
+        <v>0.001464037348410387</v>
+      </c>
+      <c r="T18">
+        <v>0.001464037348410386</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
         <v>23</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G19">
+        <v>0.12712</v>
+      </c>
+      <c r="H19">
+        <v>0.38136</v>
+      </c>
+      <c r="I19">
+        <v>0.1659239767455824</v>
+      </c>
+      <c r="J19">
+        <v>0.1659239767455823</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>0.9889696666666666</v>
+      </c>
+      <c r="N19">
+        <v>2.966909</v>
+      </c>
+      <c r="O19">
+        <v>0.01152407314051338</v>
+      </c>
+      <c r="P19">
+        <v>0.01152407314051338</v>
+      </c>
+      <c r="Q19">
+        <v>0.1257178240266667</v>
+      </c>
+      <c r="R19">
+        <v>1.13146041624</v>
+      </c>
+      <c r="S19">
+        <v>0.001912120043780932</v>
+      </c>
+      <c r="T19">
+        <v>0.001912120043780932</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G20">
+        <v>0.1321063333333333</v>
+      </c>
+      <c r="H20">
+        <v>0.396319</v>
+      </c>
+      <c r="I20">
+        <v>0.1724324117365021</v>
+      </c>
+      <c r="J20">
+        <v>0.1724324117365021</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>10.48767733333333</v>
+      </c>
+      <c r="N20">
+        <v>31.463032</v>
+      </c>
+      <c r="O20">
+        <v>0.1222087640673552</v>
+      </c>
+      <c r="P20">
+        <v>0.1222087640673552</v>
+      </c>
+      <c r="Q20">
+        <v>1.385488597689778</v>
+      </c>
+      <c r="R20">
+        <v>12.469397379208</v>
+      </c>
+      <c r="S20">
+        <v>0.02107275192347125</v>
+      </c>
+      <c r="T20">
+        <v>0.02107275192347124</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G21">
+        <v>0.1321063333333333</v>
+      </c>
+      <c r="H21">
+        <v>0.396319</v>
+      </c>
+      <c r="I21">
+        <v>0.1724324117365021</v>
+      </c>
+      <c r="J21">
+        <v>0.1724324117365021</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>62.99699166666667</v>
+      </c>
+      <c r="N21">
+        <v>188.990975</v>
+      </c>
+      <c r="O21">
+        <v>0.7340790765058636</v>
+      </c>
+      <c r="P21">
+        <v>0.7340790765058635</v>
+      </c>
+      <c r="Q21">
+        <v>8.322301580113889</v>
+      </c>
+      <c r="R21">
+        <v>74.900714221025</v>
+      </c>
+      <c r="S21">
+        <v>0.1265790255672103</v>
+      </c>
+      <c r="T21">
+        <v>0.1265790255672103</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" t="s">
+        <v>26</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G22">
+        <v>0.1321063333333333</v>
+      </c>
+      <c r="H22">
+        <v>0.396319</v>
+      </c>
+      <c r="I22">
+        <v>0.1724324117365021</v>
+      </c>
+      <c r="J22">
+        <v>0.1724324117365021</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>0.3322793333333333</v>
+      </c>
+      <c r="N22">
+        <v>0.996838</v>
+      </c>
+      <c r="O22">
+        <v>0.003871919907635547</v>
+      </c>
+      <c r="P22">
+        <v>0.003871919907635547</v>
+      </c>
+      <c r="Q22">
+        <v>0.0438962043691111</v>
+      </c>
+      <c r="R22">
+        <v>0.395065839322</v>
+      </c>
+      <c r="S22">
+        <v>0.000667644487724172</v>
+      </c>
+      <c r="T22">
+        <v>0.0006676444877241719</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G23">
+        <v>0.1321063333333333</v>
+      </c>
+      <c r="H23">
+        <v>0.396319</v>
+      </c>
+      <c r="I23">
+        <v>0.1724324117365021</v>
+      </c>
+      <c r="J23">
+        <v>0.1724324117365021</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>10.25458433333333</v>
+      </c>
+      <c r="N23">
+        <v>30.763753</v>
+      </c>
+      <c r="O23">
+        <v>0.1194926233493133</v>
+      </c>
+      <c r="P23">
+        <v>0.1194926233493133</v>
+      </c>
+      <c r="Q23">
+        <v>1.354695536134111</v>
+      </c>
+      <c r="R23">
+        <v>12.192259825207</v>
+      </c>
+      <c r="S23">
+        <v>0.02060440122884357</v>
+      </c>
+      <c r="T23">
+        <v>0.02060440122884356</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" t="s">
         <v>27</v>
       </c>
-      <c r="E13">
-        <v>3</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>0.2777016666666667</v>
-      </c>
-      <c r="H13">
-        <v>0.833105</v>
-      </c>
-      <c r="I13">
-        <v>0.4310346165646473</v>
-      </c>
-      <c r="J13">
-        <v>0.4310346165646473</v>
-      </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>1.226170666666667</v>
-      </c>
-      <c r="N13">
-        <v>3.678512</v>
-      </c>
-      <c r="O13">
-        <v>0.01066516360011862</v>
-      </c>
-      <c r="P13">
-        <v>0.01066516360011862</v>
-      </c>
-      <c r="Q13">
-        <v>0.3405096377511111</v>
-      </c>
-      <c r="R13">
-        <v>3.06458673976</v>
-      </c>
-      <c r="S13">
-        <v>0.004597054702976363</v>
-      </c>
-      <c r="T13">
-        <v>0.004597054702976362</v>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G24">
+        <v>0.1321063333333333</v>
+      </c>
+      <c r="H24">
+        <v>0.396319</v>
+      </c>
+      <c r="I24">
+        <v>0.1724324117365021</v>
+      </c>
+      <c r="J24">
+        <v>0.1724324117365021</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>0.7572163333333334</v>
+      </c>
+      <c r="N24">
+        <v>2.271649</v>
+      </c>
+      <c r="O24">
+        <v>0.008823543029319092</v>
+      </c>
+      <c r="P24">
+        <v>0.00882354302931909</v>
+      </c>
+      <c r="Q24">
+        <v>0.1000330733367778</v>
+      </c>
+      <c r="R24">
+        <v>0.900297660031</v>
+      </c>
+      <c r="S24">
+        <v>0.001521464804606293</v>
+      </c>
+      <c r="T24">
+        <v>0.001521464804606293</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G25">
+        <v>0.1321063333333333</v>
+      </c>
+      <c r="H25">
+        <v>0.396319</v>
+      </c>
+      <c r="I25">
+        <v>0.1724324117365021</v>
+      </c>
+      <c r="J25">
+        <v>0.1724324117365021</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>0.9889696666666666</v>
+      </c>
+      <c r="N25">
+        <v>2.966909</v>
+      </c>
+      <c r="O25">
+        <v>0.01152407314051338</v>
+      </c>
+      <c r="P25">
+        <v>0.01152407314051338</v>
+      </c>
+      <c r="Q25">
+        <v>0.1306491564412222</v>
+      </c>
+      <c r="R25">
+        <v>1.175842407971</v>
+      </c>
+      <c r="S25">
+        <v>0.001987123724646568</v>
+      </c>
+      <c r="T25">
+        <v>0.001987123724646568</v>
       </c>
     </row>
   </sheetData>
